--- a/data/newTranslations.xlsx
+++ b/data/newTranslations.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$277</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$374</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,14 +29,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{744BF00F-7322-474E-868E-5DE747679A07}" keepAlive="1" name="Query - KEYS" description="Connection to the 'KEYS' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - KEYS" description="Connection to the 'KEYS' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=KEYS;Extended Properties=&quot;&quot;" command="SELECT * FROM [KEYS]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="595">
   <si>
     <t/>
   </si>
@@ -1539,6 +1539,300 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>platinum_n1</t>
+  </si>
+  <si>
+    <t>platinum_n2</t>
+  </si>
+  <si>
+    <t>platinum_n3</t>
+  </si>
+  <si>
+    <t>platinum_n4</t>
+  </si>
+  <si>
+    <t>platinum_n5</t>
+  </si>
+  <si>
+    <t>platinum_n6</t>
+  </si>
+  <si>
+    <t>platinum_n7</t>
+  </si>
+  <si>
+    <t>platinum_n8</t>
+  </si>
+  <si>
+    <t>platinum_n9</t>
+  </si>
+  <si>
+    <t>platinum_n10</t>
+  </si>
+  <si>
+    <t>platinum_n11</t>
+  </si>
+  <si>
+    <t>platinum_n12</t>
+  </si>
+  <si>
+    <t>quadris_n1</t>
+  </si>
+  <si>
+    <t>quadris_n2</t>
+  </si>
+  <si>
+    <t>quadris_n3</t>
+  </si>
+  <si>
+    <t>quadris_n4</t>
+  </si>
+  <si>
+    <t>quadris_n5</t>
+  </si>
+  <si>
+    <t>quadris_n6</t>
+  </si>
+  <si>
+    <t>quadris_n7</t>
+  </si>
+  <si>
+    <t>quadris_n8</t>
+  </si>
+  <si>
+    <t>quadris_n9</t>
+  </si>
+  <si>
+    <t>quadris_n10</t>
+  </si>
+  <si>
+    <t>quadris_n11</t>
+  </si>
+  <si>
+    <t>quadris_n12</t>
+  </si>
+  <si>
+    <t>quadris_n13</t>
+  </si>
+  <si>
+    <t>quadris_n14</t>
+  </si>
+  <si>
+    <t>quadris_n15</t>
+  </si>
+  <si>
+    <t>sunrise_n1</t>
+  </si>
+  <si>
+    <t>sunrise_n2</t>
+  </si>
+  <si>
+    <t>sunrise_n3</t>
+  </si>
+  <si>
+    <t>sunrise_n4</t>
+  </si>
+  <si>
+    <t>sunrise_n5</t>
+  </si>
+  <si>
+    <t>sunrise_n6</t>
+  </si>
+  <si>
+    <t>sunrise_n7</t>
+  </si>
+  <si>
+    <t>sunrise_n8</t>
+  </si>
+  <si>
+    <t>sunrise_n9</t>
+  </si>
+  <si>
+    <t>sunrise_n10</t>
+  </si>
+  <si>
+    <t>sunrise_n11</t>
+  </si>
+  <si>
+    <t>sunrise_n12</t>
+  </si>
+  <si>
+    <t>sunrise_n13</t>
+  </si>
+  <si>
+    <t>sunrise_n14</t>
+  </si>
+  <si>
+    <t>sunrise_n15</t>
+  </si>
+  <si>
+    <t>elite_n1</t>
+  </si>
+  <si>
+    <t>elite_n2</t>
+  </si>
+  <si>
+    <t>elite_n3</t>
+  </si>
+  <si>
+    <t>elite_n4</t>
+  </si>
+  <si>
+    <t>elite_n5</t>
+  </si>
+  <si>
+    <t>elite_n6</t>
+  </si>
+  <si>
+    <t>elite_n7</t>
+  </si>
+  <si>
+    <t>elite_n8</t>
+  </si>
+  <si>
+    <t>elite_n9</t>
+  </si>
+  <si>
+    <t>elite_n10</t>
+  </si>
+  <si>
+    <t>elite_n11</t>
+  </si>
+  <si>
+    <t>elite_n12</t>
+  </si>
+  <si>
+    <t>elite_n13</t>
+  </si>
+  <si>
+    <t>frame_n1</t>
+  </si>
+  <si>
+    <t>frame_n2</t>
+  </si>
+  <si>
+    <t>frame_n3</t>
+  </si>
+  <si>
+    <t>frame_n4</t>
+  </si>
+  <si>
+    <t>frame_n5</t>
+  </si>
+  <si>
+    <t>frame_n6</t>
+  </si>
+  <si>
+    <t>glamor_n1</t>
+  </si>
+  <si>
+    <t>glamor_n2</t>
+  </si>
+  <si>
+    <t>glamor_n3</t>
+  </si>
+  <si>
+    <t>glamor_n4</t>
+  </si>
+  <si>
+    <t>glamor_n5</t>
+  </si>
+  <si>
+    <t>glamor_n6</t>
+  </si>
+  <si>
+    <t>glamor_n7</t>
+  </si>
+  <si>
+    <t>glamor_n8</t>
+  </si>
+  <si>
+    <t>glamor_n9</t>
+  </si>
+  <si>
+    <t>glamor_n10</t>
+  </si>
+  <si>
+    <t>glamor_n11</t>
+  </si>
+  <si>
+    <t>glamor_n12</t>
+  </si>
+  <si>
+    <t>glamor_n13</t>
+  </si>
+  <si>
+    <t>contour_n1</t>
+  </si>
+  <si>
+    <t>contour_n2</t>
+  </si>
+  <si>
+    <t>contour_n3</t>
+  </si>
+  <si>
+    <t>contour_n4</t>
+  </si>
+  <si>
+    <t>contour_n5</t>
+  </si>
+  <si>
+    <t>contour_n6</t>
+  </si>
+  <si>
+    <t>modest_n1</t>
+  </si>
+  <si>
+    <t>modest_n2</t>
+  </si>
+  <si>
+    <t>modest_n3</t>
+  </si>
+  <si>
+    <t>modest_n4</t>
+  </si>
+  <si>
+    <t>modest_n5</t>
+  </si>
+  <si>
+    <t>modest_n6</t>
+  </si>
+  <si>
+    <t>modest_n7</t>
+  </si>
+  <si>
+    <t>modest_n8</t>
+  </si>
+  <si>
+    <t>cmod1</t>
+  </si>
+  <si>
+    <t>cmod2</t>
+  </si>
+  <si>
+    <t>cmod3</t>
+  </si>
+  <si>
+    <t>cmod4</t>
+  </si>
+  <si>
+    <t>cmod5</t>
+  </si>
+  <si>
+    <t>cmod6</t>
+  </si>
+  <si>
+    <t>cmod7</t>
+  </si>
+  <si>
+    <t>cmod8</t>
+  </si>
+  <si>
+    <t>cmod9</t>
+  </si>
+  <si>
+    <t>cmod10</t>
   </si>
 </sst>
 </file>
@@ -1554,15 +1848,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1570,11 +1894,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1583,6 +1935,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,7 +1976,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EFBCF394-E7C5-421F-8411-DA88EC2022B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1634,8 +1993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4835E251-39BC-4B63-993E-BE70601E86E1}" name="KEYS" displayName="KEYS" ref="A1:D277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D277" xr:uid="{6AA71ABC-2B15-440D-9672-C16BB7068C26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4835E251-39BC-4B63-993E-BE70601E86E1}" name="KEYS" displayName="KEYS" ref="A1:D374" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D374" xr:uid="{6AA71ABC-2B15-440D-9672-C16BB7068C26}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8024C7A2-996C-4E9F-B272-081046259988}" uniqueName="1" name="key" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{3ADC2573-E417-4610-BE2E-7B652881CA0F}" uniqueName="2" name="ua" queryTableFieldId="2" dataDxfId="2"/>
@@ -1943,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F538879-C871-4979-8B9C-FB717A6DAF21}">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277:A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5490,8 +5849,8 @@
       <c r="E276"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>0</v>
+      <c r="A277" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>0</v>
@@ -5501,6 +5860,782 @@
       </c>
       <c r="D277" s="2"/>
       <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/newTranslations.xlsx
+++ b/data/newTranslations.xlsx
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F538879-C871-4979-8B9C-FB717A6DAF21}">
   <dimension ref="A1:E374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:A374"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
